--- a/config_2.2/activity_ty_task_config.xlsx
+++ b/config_2.2/activity_ty_task_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -186,10 +186,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>khfl_bg_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>1,2,3,4,5,6</t>
     </r>
@@ -542,6 +538,9 @@
   <si>
     <t>act_khfl_044_cjj</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>yxfl_bg_1</t>
   </si>
 </sst>
 </file>
@@ -1024,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1068,13 +1067,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E2" s="25">
         <v>1</v>
@@ -1087,13 +1086,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="34" t="s">
-        <v>32</v>
-      </c>
       <c r="D3" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E3" s="31">
         <v>2</v>
@@ -1102,6 +1101,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1153,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" s="26">
         <v>1</v>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="F2" s="28"/>
       <c r="G2" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1174,7 +1174,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" s="30">
         <v>1</v>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="F3" s="32"/>
       <c r="G3" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1208,7 +1208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
@@ -1243,7 +1243,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>9</v>
@@ -1299,19 +1299,19 @@
         <v>1000240</v>
       </c>
       <c r="C2" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="20">
+        <v>1</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="20">
-        <v>1</v>
-      </c>
-      <c r="F2" s="22" t="s">
+      <c r="G2" s="23" t="s">
         <v>49</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>50</v>
       </c>
       <c r="H2" s="24" t="s">
         <v>26</v>
@@ -1331,19 +1331,19 @@
         <v>1000241</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" s="20">
         <v>1</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H3" s="24" t="s">
         <v>26</v>
@@ -1365,19 +1365,19 @@
         <v>1000242</v>
       </c>
       <c r="C4" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="E4" s="20">
+        <v>1</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="23" t="s">
         <v>53</v>
-      </c>
-      <c r="E4" s="20">
-        <v>1</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>54</v>
       </c>
       <c r="H4" s="24" t="s">
         <v>26</v>
@@ -1397,19 +1397,19 @@
         <v>1000243</v>
       </c>
       <c r="C5" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>56</v>
-      </c>
       <c r="E5" s="20">
         <v>1</v>
       </c>
       <c r="F5" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="23" t="s">
         <v>39</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>40</v>
       </c>
       <c r="H5" s="24" t="s">
         <v>26</v>
@@ -1429,19 +1429,19 @@
         <v>1000244</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" s="20">
         <v>1</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H6" s="24" t="s">
         <v>26</v>
@@ -1461,19 +1461,19 @@
         <v>1000245</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="20">
+        <v>1</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="23" t="s">
         <v>58</v>
-      </c>
-      <c r="E7" s="20">
-        <v>1</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>59</v>
       </c>
       <c r="H7" s="24" t="s">
         <v>26</v>
@@ -1494,19 +1494,19 @@
         <v>1000246</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E8" s="20">
         <v>1</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8" s="24" t="s">
         <v>26</v>
@@ -1520,19 +1520,19 @@
         <v>1000247</v>
       </c>
       <c r="C9" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="E9" s="20">
+        <v>1</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="23" t="s">
         <v>62</v>
-      </c>
-      <c r="E9" s="20">
-        <v>1</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>63</v>
       </c>
       <c r="H9" s="24" t="s">
         <v>26</v>
@@ -1546,19 +1546,19 @@
         <v>1000248</v>
       </c>
       <c r="C10" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>65</v>
-      </c>
       <c r="E10" s="20">
         <v>1</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H10" s="24" t="s">
         <v>26</v>
@@ -1572,22 +1572,22 @@
         <v>1000249</v>
       </c>
       <c r="C11" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="E11" s="15">
+        <v>1</v>
+      </c>
+      <c r="F11" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="15">
-        <v>1</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>68</v>
-      </c>
       <c r="G11" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -1598,22 +1598,22 @@
         <v>1000250</v>
       </c>
       <c r="C12" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="E12" s="15">
+        <v>1</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="15">
-        <v>1</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>71</v>
-      </c>
       <c r="H12" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -1624,22 +1624,22 @@
         <v>1000251</v>
       </c>
       <c r="C13" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="E13" s="15">
+        <v>1</v>
+      </c>
+      <c r="F13" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="15">
-        <v>1</v>
-      </c>
-      <c r="F13" s="17" t="s">
+      <c r="G13" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="G13" s="18" t="s">
-        <v>75</v>
-      </c>
       <c r="H13" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -1650,22 +1650,22 @@
         <v>1000252</v>
       </c>
       <c r="C14" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="E14" s="15">
+        <v>1</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="15">
-        <v>1</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>78</v>
-      </c>
       <c r="H14" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -1676,22 +1676,22 @@
         <v>1000253</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" s="15">
         <v>1</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -1702,22 +1702,22 @@
         <v>1000254</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E16" s="15">
         <v>1</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1728,22 +1728,22 @@
         <v>1000255</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E17" s="15">
         <v>1</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1754,22 +1754,22 @@
         <v>1000256</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E18" s="15">
         <v>1</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1780,22 +1780,22 @@
         <v>1000257</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="E19" s="15">
+        <v>1</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="E19" s="15">
-        <v>1</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>85</v>
-      </c>
       <c r="H19" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/config_2.2/activity_ty_task_config.xlsx
+++ b/config_2.2/activity_ty_task_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="93">
   <si>
     <t>index|索引</t>
   </si>
@@ -162,10 +162,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>"game_FishingHall",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>tge_index|标签</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -541,6 +537,13 @@
   </si>
   <si>
     <t>yxfl_bg_1</t>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1023,7 +1026,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -1044,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -1053,7 +1056,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>19</v>
@@ -1067,13 +1070,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E2" s="25">
         <v>1</v>
@@ -1086,13 +1089,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="34" t="s">
-        <v>91</v>
-      </c>
       <c r="D3" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E3" s="31">
         <v>2</v>
@@ -1127,7 +1130,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>3</v>
@@ -1145,7 +1148,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1153,7 +1156,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2" s="26">
         <v>1</v>
@@ -1166,7 +1169,7 @@
       </c>
       <c r="F2" s="28"/>
       <c r="G2" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1174,7 +1177,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" s="30">
         <v>1</v>
@@ -1187,7 +1190,7 @@
       </c>
       <c r="F3" s="32"/>
       <c r="G3" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1208,8 +1211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1237,13 +1240,13 @@
   <sheetData>
     <row r="1" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>9</v>
@@ -1299,22 +1302,22 @@
         <v>1000240</v>
       </c>
       <c r="C2" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="20">
+        <v>1</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="20">
-        <v>1</v>
-      </c>
-      <c r="F2" s="22" t="s">
+      <c r="G2" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="23" t="s">
-        <v>49</v>
-      </c>
       <c r="H2" s="24" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="L2" s="11"/>
       <c r="N2" s="11"/>
@@ -1331,22 +1334,22 @@
         <v>1000241</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="20">
         <v>1</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -1365,22 +1368,22 @@
         <v>1000242</v>
       </c>
       <c r="C4" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="E4" s="20">
+        <v>1</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="20">
-        <v>1</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>53</v>
-      </c>
       <c r="H4" s="24" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -1397,22 +1400,22 @@
         <v>1000243</v>
       </c>
       <c r="C5" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>55</v>
-      </c>
       <c r="E5" s="20">
         <v>1</v>
       </c>
       <c r="F5" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="23" t="s">
-        <v>39</v>
-      </c>
       <c r="H5" s="24" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
@@ -1429,22 +1432,22 @@
         <v>1000244</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" s="20">
         <v>1</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
@@ -1461,22 +1464,22 @@
         <v>1000245</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="20">
+        <v>1</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="20">
-        <v>1</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>58</v>
-      </c>
       <c r="H7" s="24" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
@@ -1494,22 +1497,22 @@
         <v>1000246</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E8" s="20">
         <v>1</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -1520,22 +1523,22 @@
         <v>1000247</v>
       </c>
       <c r="C9" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="E9" s="20">
+        <v>1</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="20">
-        <v>1</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>62</v>
-      </c>
       <c r="H9" s="24" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -1546,22 +1549,22 @@
         <v>1000248</v>
       </c>
       <c r="C10" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>64</v>
-      </c>
       <c r="E10" s="20">
         <v>1</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -1572,22 +1575,22 @@
         <v>1000249</v>
       </c>
       <c r="C11" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="E11" s="15">
+        <v>1</v>
+      </c>
+      <c r="F11" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="15">
-        <v>1</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>67</v>
-      </c>
       <c r="G11" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -1598,22 +1601,22 @@
         <v>1000250</v>
       </c>
       <c r="C12" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="E12" s="15">
+        <v>1</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="15">
-        <v>1</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>70</v>
-      </c>
       <c r="H12" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -1624,22 +1627,22 @@
         <v>1000251</v>
       </c>
       <c r="C13" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="E13" s="15">
+        <v>1</v>
+      </c>
+      <c r="F13" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="15">
-        <v>1</v>
-      </c>
-      <c r="F13" s="17" t="s">
+      <c r="G13" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="G13" s="18" t="s">
-        <v>74</v>
-      </c>
       <c r="H13" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -1650,22 +1653,22 @@
         <v>1000252</v>
       </c>
       <c r="C14" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="E14" s="15">
+        <v>1</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="15">
-        <v>1</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>77</v>
-      </c>
       <c r="H14" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -1676,22 +1679,22 @@
         <v>1000253</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" s="15">
         <v>1</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -1702,22 +1705,22 @@
         <v>1000254</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E16" s="15">
         <v>1</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1728,22 +1731,22 @@
         <v>1000255</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E17" s="15">
         <v>1</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1754,22 +1757,22 @@
         <v>1000256</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E18" s="15">
         <v>1</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1780,22 +1783,22 @@
         <v>1000257</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="E19" s="15">
+        <v>1</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="15">
-        <v>1</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>84</v>
-      </c>
       <c r="H19" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/config_2.2/activity_ty_task_config.xlsx
+++ b/config_2.2/activity_ty_task_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -1024,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1208,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_2.2/activity_ty_task_config.xlsx
+++ b/config_2.2/activity_ty_task_config.xlsx
@@ -326,10 +326,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>500000,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>在3D捕鱼中通过击杀话费鱼累计获得50话费碎片</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -543,6 +539,10 @@
   </si>
   <si>
     <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000,</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1070,13 +1070,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E2" s="25">
         <v>1</v>
@@ -1089,13 +1089,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="34" t="s">
-        <v>90</v>
-      </c>
       <c r="D3" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E3" s="31">
         <v>2</v>
@@ -1156,7 +1156,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" s="26">
         <v>1</v>
@@ -1177,7 +1177,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" s="30">
         <v>1</v>
@@ -1212,7 +1212,7 @@
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1317,7 +1317,7 @@
         <v>48</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L2" s="11"/>
       <c r="N2" s="11"/>
@@ -1349,7 +1349,7 @@
         <v>48</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -1383,7 +1383,7 @@
         <v>52</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -1415,7 +1415,7 @@
         <v>38</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
@@ -1447,7 +1447,7 @@
         <v>39</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
@@ -1476,10 +1476,10 @@
         <v>49</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
@@ -1500,7 +1500,7 @@
         <v>34</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" s="20">
         <v>1</v>
@@ -1512,7 +1512,7 @@
         <v>38</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -1523,10 +1523,10 @@
         <v>1000247</v>
       </c>
       <c r="C9" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>59</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>60</v>
       </c>
       <c r="E9" s="20">
         <v>1</v>
@@ -1535,10 +1535,10 @@
         <v>47</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -1549,10 +1549,10 @@
         <v>1000248</v>
       </c>
       <c r="C10" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>62</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>63</v>
       </c>
       <c r="E10" s="20">
         <v>1</v>
@@ -1564,7 +1564,7 @@
         <v>39</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -1575,16 +1575,16 @@
         <v>1000249</v>
       </c>
       <c r="C11" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="E11" s="15">
+        <v>1</v>
+      </c>
+      <c r="F11" s="17" t="s">
         <v>65</v>
-      </c>
-      <c r="E11" s="15">
-        <v>1</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>66</v>
       </c>
       <c r="G11" s="18" t="s">
         <v>40</v>
@@ -1601,19 +1601,19 @@
         <v>1000250</v>
       </c>
       <c r="C12" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="E12" s="15">
+        <v>1</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="18" t="s">
         <v>68</v>
-      </c>
-      <c r="E12" s="15">
-        <v>1</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>69</v>
       </c>
       <c r="H12" s="19" t="s">
         <v>44</v>
@@ -1627,19 +1627,19 @@
         <v>1000251</v>
       </c>
       <c r="C13" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="E13" s="15">
+        <v>1</v>
+      </c>
+      <c r="F13" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="15">
-        <v>1</v>
-      </c>
-      <c r="F13" s="17" t="s">
+      <c r="G13" s="18" t="s">
         <v>72</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>73</v>
       </c>
       <c r="H13" s="19" t="s">
         <v>44</v>
@@ -1653,19 +1653,19 @@
         <v>1000252</v>
       </c>
       <c r="C14" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="E14" s="15">
+        <v>1</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="18" t="s">
         <v>75</v>
-      </c>
-      <c r="E14" s="15">
-        <v>1</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>76</v>
       </c>
       <c r="H14" s="19" t="s">
         <v>43</v>
@@ -1679,7 +1679,7 @@
         <v>1000253</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>41</v>
@@ -1691,7 +1691,7 @@
         <v>37</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H15" s="19" t="s">
         <v>44</v>
@@ -1705,19 +1705,19 @@
         <v>1000254</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E16" s="15">
         <v>1</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H16" s="19" t="s">
         <v>44</v>
@@ -1731,7 +1731,7 @@
         <v>1000255</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>42</v>
@@ -1740,10 +1740,10 @@
         <v>1</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H17" s="19" t="s">
         <v>44</v>
@@ -1757,19 +1757,19 @@
         <v>1000256</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E18" s="15">
         <v>1</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H18" s="19" t="s">
         <v>44</v>
@@ -1783,19 +1783,19 @@
         <v>1000257</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="E19" s="15">
+        <v>1</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="18" t="s">
         <v>82</v>
-      </c>
-      <c r="E19" s="15">
-        <v>1</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>83</v>
       </c>
       <c r="H19" s="19" t="s">
         <v>44</v>
